--- a/vivo/data/tg486/tg486.xlsx
+++ b/vivo/data/tg486/tg486.xlsx
@@ -1,41 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="default_1" r:id="rId3" sheetId="1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
-      <sz val="11.0"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -43,48 +45,413 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D272"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Chemical</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>CasRN</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Genotoxicity_maj</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Genotoxicity_consv</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>SMILES</t>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>consv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>maj</t>
         </is>
       </c>
     </row>
@@ -109,11 +476,6 @@
           <t>negative</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>NC1=C(C=C(O)C=C1)[N+]([O-])=O</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -136,11 +498,6 @@
           <t>negative</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>C1=CC=NC=C1</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -163,11 +520,6 @@
           <t>negative</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>CCOCC1CCCO1</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -190,21 +542,16 @@
           <t>negative</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CC1=NNC(=O)N(C1)\N=C\C1=CC=CN=C1</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Paraquat-dichloride</t>
+          <t>Distillates (petroleum), catalytic reformed hydrotreated light, C8-12 arom. fraction</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1910-42-5</t>
+          <t>85116-58-1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -215,23 +562,18 @@
       <c r="D6" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[Cl-].[Cl-].C[N+]1=CC=C(C=C1)C1=CC=[N+](C)C=C1</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bis(2-ethylhexyl) phthalate</t>
+          <t>tetraammine platinum (II) hydrogen carbonate</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>117-81-7</t>
+          <t>123439-82-7</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -242,23 +584,18 @@
       <c r="D7" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CCCCC(CC)COC(=O)C1=C(C=CC=C1)C(=O)OCC(CC)CCCC</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>(R)-3-chloropropane-1,2-diol</t>
+          <t>2,7-Naphthalenedisulfonic acid, 4-amino-5-hydroxy-, coupled with 3-aminophenol, diazotized 5-amino-2-[(4-aminophenyl)amino]benzenesulfonic acid and diazotized benzenamine, sodium salts</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>57090-45-6</t>
+          <t>93281-13-1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -269,23 +606,18 @@
       <c r="D8" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>OC[C@@H](O)CCl</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2,6-xylidine</t>
+          <t>Paraquat-dichloride</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>87-62-7</t>
+          <t>1910-42-5</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -296,23 +628,18 @@
       <c r="D9" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>CC1=CC=CC(C)=C1N</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A mixture of: 2,2',2'',2'''-(ethylenedinitrilotetrakis-N,N-di(C16)alkylacetamide; 2,2',2'',2'''-(ethylenedinitrilotetrakis-N,N-di(C18)alkylacetamide</t>
+          <t>Bis(2-ethylhexyl) phthalate</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>136920-07-5</t>
+          <t>117-81-7</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -323,23 +650,18 @@
       <c r="D10" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>CCN(CC)C(=O)CN(CCN(CC(=O)N(CC)CC)CC(=O)N(CC)CC)CC(=O)N(CC)CC |lp:2:1,6:2,8:1,11:1,14:2,15:1,22:2,23:1,30:2,31:1,Sg:n:24:11-17:ht,Sg:n:16:11-17:ht,Sg:n:18:11-17:ht,Sg:n:1:11-17:ht,Sg:n:3:11-17:ht,Sg:n:32:11-17:ht,Sg:n:34:11-17:ht,Sg:n:26:11-17:ht|</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4-amino-m-cresol</t>
+          <t>(R)-3-chloropropane-1,2-diol</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2835-99-6</t>
+          <t>57090-45-6</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -350,23 +672,18 @@
       <c r="D11" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>CC1=CC(O)=CC=C1N</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4,4'-Methylene-bis-(3-chloro-2,6-diethylaniline)</t>
+          <t>2,6-xylidine</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>106246-33-7</t>
+          <t>87-62-7</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -377,23 +694,18 @@
       <c r="D12" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>CCC1=C(N)C(CC)=C(Cl)C(CC2=CC(CC)=C(N)C(CC)=C2Cl)=C1</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3,3'-dimethylbiphenyl-4,4'-diyl diisocyanate</t>
+          <t>A mixture of: 2,2',2'',2'''-(ethylenedinitrilotetrakis-N,N-di(C16)alkylacetamide; 2,2',2'',2'''-(ethylenedinitrilotetrakis-N,N-di(C18)alkylacetamide</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>91-97-4</t>
+          <t>136920-07-5</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -404,23 +716,18 @@
       <c r="D13" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>CC1=CC(=CC=C1N=C=O)C1=CC(C)=C(C=C1)N=C=O</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2-ethylhexyl acrylate</t>
+          <t>4-amino-m-cresol</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>103-11-7</t>
+          <t>2835-99-6</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -431,23 +738,18 @@
       <c r="D14" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>CCCCC(CC)COC(=O)C=C</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1,3-bis(3-methyl-2,5-dioxo-1H-pyrrolinylmethyl)benzene</t>
+          <t>4,4'-Methylene-bis-(3-chloro-2,6-diethylaniline)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>119462-56-5</t>
+          <t>106246-33-7</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -458,50 +760,40 @@
       <c r="D15" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>CC1=CC(=O)N(CC2=CC(CN3C(=O)C=C(C)C3=O)=CC=C2)C1=O</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1-[1,3-bis(hydroxymethyl)-2,5-dioxoimidazolidin-4-yl]-1,3-bis(hydroxymethyl)urea</t>
+          <t>Nitrotoluene</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>78491-02-8</t>
+          <t>1321-12-6</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>OCNC(=O)N(CO)C1N(CO)C(=O)N(CO)C1=O</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5-amino-1-[2,6-dichloro-4-(trifluoromethyl)phenyl]-4-(ethylsulfinyl)-1H-pyrazole-3-carbonitrile</t>
+          <t>Reaction products of tetrakis(hydroxymethyl)phosphonium chloride, urea and tetradecan-1-amine</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>181587-01-9</t>
+          <t>359406-89-6</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -512,23 +804,18 @@
       <c r="D17" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>CCS(=O)C1=C(N)N(N=C1C#N)C1=C(Cl)C=C(C=C1Cl)C(F)(F)F</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Peracetic acid</t>
+          <t>3,3'-dimethylbiphenyl-4,4'-diyl diisocyanate</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>79-21-0</t>
+          <t>91-97-4</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -539,23 +826,18 @@
       <c r="D18" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>CC(=O)OO</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1,5-naphthylene diisocyanate</t>
+          <t>2-ethylhexyl acrylate</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3173-72-6</t>
+          <t>103-11-7</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -566,23 +848,18 @@
       <c r="D19" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>O=C=NC1=CC=CC2=C(C=CC=C12)N=C=O</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Methyl 3-oxo-2-pentylcyclopentaneacetate</t>
+          <t>Copper dichloride</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>24851-98-7</t>
+          <t>7447-39-4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -593,23 +870,18 @@
       <c r="D20" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>CCCCCC1C(CC(=O)OC)CCC1=O</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Eugenol</t>
+          <t>1,3-bis(3-methyl-2,5-dioxo-1H-pyrrolinylmethyl)benzene</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>97-53-0</t>
+          <t>119462-56-5</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -620,23 +892,18 @@
       <c r="D21" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>COC1=C(O)C=CC(CC=C)=C1</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>(E)-anethole</t>
+          <t>Tetraammineplatinum dichloride</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4180-23-8</t>
+          <t>13933-32-9</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -647,23 +914,18 @@
       <c r="D22" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>COC1=CC=C(\C=C\C)C=C1</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>p-phenylenediamine</t>
+          <t>1-[1,3-bis(hydroxymethyl)-2,5-dioxoimidazolidin-4-yl]-1,3-bis(hydroxymethyl)urea</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>106-50-3</t>
+          <t>78491-02-8</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -674,23 +936,18 @@
       <c r="D23" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>NC1=CC=C(N)C=C1</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>N-(4-aminophenyl)aniline</t>
+          <t>5-amino-1-[2,6-dichloro-4-(trifluoromethyl)phenyl]-4-(ethylsulfinyl)-1H-pyrazole-3-carbonitrile</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>101-54-2</t>
+          <t>181587-01-9</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -701,23 +958,18 @@
       <c r="D24" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>NC1=CC=C(NC2=CC=CC=C2)C=C1</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sodium dimethyldithiocarbamate</t>
+          <t>Peracetic acid</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>128-04-1</t>
+          <t>79-21-0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -728,23 +980,18 @@
       <c r="D25" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>[Na+].CN(C)C([S-])=S</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Hydrogen peroxide</t>
+          <t>1,5-naphthylene diisocyanate</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>7722-84-1</t>
+          <t>3173-72-6</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -755,23 +1002,18 @@
       <c r="D26" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>OO</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Aminoguanidinium hydrogen carbonate</t>
+          <t>Potassium trifluorozincate</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2582-30-1</t>
+          <t>13827-02-6</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -782,23 +1024,18 @@
       <c r="D27" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>OC(O)=O.NNC(N)=N</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2,2'-[[4-[(3,5-dinitro-2-thienyl)azo]phenyl]imino]bisethyl diacetate</t>
+          <t>Methyl 3-oxo-2-pentylcyclopentaneacetate</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>42783-06-2</t>
+          <t>24851-98-7</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -809,23 +1046,18 @@
       <c r="D28" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>CC(=O)OCCN(CCOC(C)=O)C1=CC=C(C=C1)N=NC1=C(C=C(S1)[N+]([O-])=O)[N+]([O-])=O</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2,4,6-tri-n-propyl-2,4,6-trioxo-1,3,5,2,4,6-trioxatriphosphorinane</t>
+          <t>Eugenol</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>68957-94-8</t>
+          <t>97-53-0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -836,23 +1068,18 @@
       <c r="D29" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>CCCP1(=O)OP(=O)(CCC)OP(=O)(CCC)O1</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Phosphine</t>
+          <t>(E)-anethole</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>7803-51-2</t>
+          <t>4180-23-8</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -863,23 +1090,18 @@
       <c r="D30" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>P</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>4-methylmorpholine 4-oxide, monohydrate</t>
+          <t>p-phenylenediamine</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>7529-22-8</t>
+          <t>106-50-3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -890,23 +1112,18 @@
       <c r="D31" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>C[N+]1([O-])CCOCC1</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1,3,5-trioxane</t>
+          <t>N-(4-aminophenyl)aniline</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>110-88-3</t>
+          <t>101-54-2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -917,50 +1134,40 @@
       <c r="D32" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>C1OCOCO1</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>chloromethane; methyl chloride</t>
+          <t>Amides, coco, N-(hydroxyethyl), propoxylated</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>74-87-3</t>
+          <t>201363-52-2</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>CCl</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>kresoxim-methyl (ISO);methyl (E)-2-methoxyimino-[2-(o-tolyloxymethyl)phenyl]acetate</t>
+          <t>Copper dinitrate</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>143390-89-0</t>
+          <t>3251-23-8</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -971,23 +1178,18 @@
       <c r="D34" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>CO\N=C(\C(=O)OC)C1=C(COC2=C(C)C=CC=C2)C=CC=C1</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>4-[[4-(aminocarbonyl)phenyl]azo]-3-hydroxy-N-(2-methoxyphenyl)naphthalene-2-carboxamide</t>
+          <t>Sodium 1-[6-(morpholin-4-yl)pyrimidin-4-yl]-4-(1H-1,2,3-triazol-1-yl)-1H-pyrazol-5-olate</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>36968-27-1</t>
+          <t>1375799-59-9</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -998,23 +1200,18 @@
       <c r="D35" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>COC1=C(NC(=O)C2=C(O)C(N=NC3=CC=C(C=C3)C(N)=O)=C3C=CC=CC3=C2)C=CC=C1</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>isostearic acid monoisopropanolamide</t>
+          <t>Sodium dimethyldithiocarbamate</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>170573-32-7</t>
+          <t>128-04-1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1025,23 +1222,18 @@
       <c r="D36" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>CC(C)CCCCCCCCCCCCCCC(=O)NCC(C)O</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Methyl N-[3-(acetylamino)-4-[(2,4-dinitrophenyl)azo]phenyl]-N-(3-methoxy-3-oxopropyl)-β-alaninate</t>
+          <t>Hydrogen peroxide</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>70729-65-6</t>
+          <t>7722-84-1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1052,23 +1244,18 @@
       <c r="D37" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>COC(=O)CCN(CCC(=O)OC)C1=CC(NC(C)=O)=C(C=C1)N=NC1=C(C=C(C=C1)[N+]([O-])=O)[N+]([O-])=O</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Chloroethane</t>
+          <t>Dicopper oxide</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>75-00-3</t>
+          <t>1317-39-1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1079,23 +1266,18 @@
       <c r="D38" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>CCCl</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Disodium 2,2'-([1,1'-biphenyl]-4,4'-diyldivinylene)bis(benzenesulphonate)</t>
+          <t>Aminoguanidinium hydrogen carbonate</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>27344-41-8</t>
+          <t>2582-30-1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1106,23 +1288,18 @@
       <c r="D39" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>[Na+].[Na+].[O-]S(=O)(=O)C1=CC=CC=C1C=CC1=CC=C(C=C1)C1=CC=C(C=CC2=CC=CC=C2S([O-])(=O)=O)C=C1</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>4,4'-oxydianiline</t>
+          <t>Copper chloride</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>101-80-4</t>
+          <t>7758-89-6</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1133,23 +1310,18 @@
       <c r="D40" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>NC1=CC=C(OC2=CC=C(N)C=C2)C=C1</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2-(2,4-diaminophenoxy)ethanol dihydrochloride</t>
+          <t>2,2'-[[4-[(3,5-dinitro-2-thienyl)azo]phenyl]imino]bisethyl diacetate</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>66422-95-5</t>
+          <t>42783-06-2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1160,23 +1332,18 @@
       <c r="D41" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Cl.Cl.NC1=CC(N)=C(OCCO)C=C1</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>4-mesyl-2-nitrotoluene</t>
+          <t>Formaldehyde, reaction products with 5,12-dihydroquino[2,3-b]acridine-7,14-dione and 3,5-dimethyl-1H-pyrazole, sulfonated</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1671-49-4</t>
+          <t>191358-81-3</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1187,23 +1354,18 @@
       <c r="D42" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>CC1=C(C=C(C=C1)S(C)(=O)=O)[N+]([O-])=O</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>(3-ammonio-4-methoxyphenyl)(2-hydroxyethyl)ammonium sulphate</t>
+          <t>2,4,6-tri-n-propyl-2,4,6-trioxo-1,3,5,2,4,6-trioxatriphosphorinane</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>83763-48-8</t>
+          <t>68957-94-8</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1214,23 +1376,18 @@
       <c r="D43" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>OS(O)(=O)=O.COC1=C(N)C=C(NCCO)C=C1</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3-nitrotoluene</t>
+          <t>Reaction products of hexane-1,6-diol with 2-(chloromethyl)oxirane (1:2)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>99-08-1</t>
+          <t>933999-84-9</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1241,23 +1398,18 @@
       <c r="D44" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>CC1=CC(=CC=C1)[N+]([O-])=O</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2,2'-[6-(4-methoxyphenyl)-1,3,5-triazine-2,4-diyl]bis{5-[(2-ethylhexyl)oxy]phenol}</t>
+          <t>Phosphine</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>187393-00-6</t>
+          <t>7803-51-2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1268,23 +1420,18 @@
       <c r="D45" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>CCCCC(CC)COC1=CC(O)=C(C=C1)C1=NC(=NC(=N1)C1=CC=C(OCC(CC)CCCC)C=C1O)C1=CC=C(OC)C=C1</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5-chloro-2-(4-chlorophenoxy)phenol;[DCPP]</t>
+          <t>4-methylmorpholine 4-oxide, monohydrate</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3380-30-1</t>
+          <t>7529-22-8</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1295,23 +1442,18 @@
       <c r="D46" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>OC1=C(OC2=CC=C(Cl)C=C2)C=CC(Cl)=C1</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Semicarbazide hydrochloride</t>
+          <t>1,3,5-trioxane</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>563-41-7</t>
+          <t>110-88-3</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1322,50 +1464,36 @@
       <c r="D47" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Cl.NNC(N)=O</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3-phenyl-7-[4-(tetrahydrofurfuryloxy)phenyl]-1,5-dioxa-s-indacen-2,6-dione</t>
+          <t>chloromethane; methyl chloride</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>134724-55-3</t>
+          <t>74-87-3</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>O=C1OC2=CC3=C(C(=O)OC3=CC2=C1C1=CC=CC=C1)C1=CC=C(OCC2CCCO2)C=C1</t>
-        </is>
-      </c>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1-(4-methyl-2-nitrophenylazo)-2-naphthol</t>
+          <t>Dicopper chloride trihydroxide</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2425-85-6</t>
+          <t>1332-65-6</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1376,23 +1504,18 @@
       <c r="D49" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>CC1=CC(=C(C=C1)N=NC1=C2C=CC=CC2=CC=C1O)[N+]([O-])=O</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Bronopol</t>
+          <t>Barium bis[2-[(2-hydroxynaphthyl)azo]naphthalenesulphonate]</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>52-51-7</t>
+          <t>1103-38-4</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1403,23 +1526,18 @@
       <c r="D50" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>OCC(Br)(CO)[N+]([O-])=O</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2-[[4-(diethylamino)-2-methylphenyl]azo]-5-nitrobenzene-1,3-dicarbonitrile</t>
+          <t>kresoxim-methyl (ISO);methyl (E)-2-methoxyimino-[2-(o-tolyloxymethyl)phenyl]acetate</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>84870-65-5</t>
+          <t>143390-89-0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1430,50 +1548,40 @@
       <c r="D51" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>CCN(CC)C1=CC(C)=C(C=C1)N=NC1=C(C=C(C=C1C#N)[N+]([O-])=O)C#N</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Glutaral</t>
+          <t>Dinitrotoluene</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>111-30-8</t>
+          <t>25321-14-6</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>O=CCCCC=O</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Styrene</t>
+          <t>2,3-epoxypropyl neodecanoate</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>100-42-5</t>
+          <t>26761-45-5</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1484,23 +1592,18 @@
       <c r="D53" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>C=CC1=CC=CC=C1</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1-[(2,4-dinitrophenyl)azo]-2-naphthol</t>
+          <t>4-[[4-(aminocarbonyl)phenyl]azo]-3-hydroxy-N-(2-methoxyphenyl)naphthalene-2-carboxamide</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3468-63-1</t>
+          <t>36968-27-1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1511,23 +1614,18 @@
       <c r="D54" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>OC1=C(N=NC2=C(C=C(C=C2)[N+]([O-])=O)[N+]([O-])=O)C2=CC=CC=C2C=C1</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2,2'-methylenebis(6-(2H-benzotriazol-2-yl)-4-(1,1,3,3-tetramethylbutyl)phenol)</t>
+          <t>isostearic acid monoisopropanolamide</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>103597-45-1</t>
+          <t>170573-32-7</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1538,23 +1636,18 @@
       <c r="D55" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>CC(C)(C)CC(C)(C)C1=CC(CC2=C(O)C(=CC(=C2)C(C)(C)CC(C)(C)C)N2N=C3C=CC=CC3=N2)=C(O)C(=C1)N1N=C2C=CC=CC2=N1</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>N-(1,1-dimethyl-3-oxobutyl)acrylamide</t>
+          <t>2-ethylhexanoic acid, copper salt</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2873-97-4</t>
+          <t>22221-10-9</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1565,23 +1658,18 @@
       <c r="D56" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>CC(=O)CC(C)(C)NC(=O)C=C</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Ethylbenzene</t>
+          <t>Methyl N-[3-(acetylamino)-4-[(2,4-dinitrophenyl)azo]phenyl]-N-(3-methoxy-3-oxopropyl)-β-alaninate</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>100-41-4</t>
+          <t>70729-65-6</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1592,23 +1680,18 @@
       <c r="D57" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>CCC1=CC=CC=C1</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Methyl-3-methoxyacrylate</t>
+          <t>Chloroethane</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>5788-17-0</t>
+          <t>75-00-3</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1619,23 +1702,18 @@
       <c r="D58" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>CO\C=C\C(=O)OC</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2,2,6,6-tetramethylpiperidinooxy</t>
+          <t>Disodium 2,2'-([1,1'-biphenyl]-4,4'-diyldivinylene)bis(benzenesulphonate)</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2564-83-2</t>
+          <t>27344-41-8</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1646,23 +1724,18 @@
       <c r="D59" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>CC1(C)CCCC(C)(C)N1[O]</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>4-[N-ethyl-N-(2-hydroxyethyl)amino]-1-(2-hydroxyethyl)amino-2-nitrobenzene, monohydrochloride</t>
+          <t>Gasoline, straight-run, topping-plant</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>132885-85-9</t>
+          <t>68606-11-1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1673,50 +1746,40 @@
       <c r="D60" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Cl.CCN(CCO)C1=CC(=C(NCCO)C=C1)[N+]([O-])=O</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Estradiol</t>
+          <t>4,4'-oxydianiline</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>50-28-2</t>
+          <t>101-80-4</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>[H][C@@]12CC[C@H](O)[C@@]1(C)CC[C@]1([H])C3=CC=C(O)C=C3CC[C@@]21[H]</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>4,4',4''-(ethan-1,1,1-triyl)triphenol</t>
+          <t>Tetraammineplatinum (II) diacetate</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>27955-94-8</t>
+          <t>127733-97-5</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1727,23 +1790,18 @@
       <c r="D62" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>CC(C1=CC=C(O)C=C1)(C1=CC=C(O)C=C1)C1=CC=C(O)C=C1</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>5-nitro-2-(2-methyl-4-(diethylamino)phenylazo)thiazole</t>
+          <t>2-(2,4-diaminophenoxy)ethanol dihydrochloride</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>70693-64-0</t>
+          <t>66422-95-5</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1754,23 +1812,18 @@
       <c r="D63" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>CCN(CC)C1=CC=C(N=NC2=NC=C(S2)[N+]([O-])=O)C(C)=C1</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Diphenylamine</t>
+          <t>4-mesyl-2-nitrotoluene</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>122-39-4</t>
+          <t>1671-49-4</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1781,23 +1834,18 @@
       <c r="D64" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>N(C1=CC=CC=C1)C1=CC=CC=C1</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Dodecyl acrylate</t>
+          <t>Naphthenic acids, copper salts</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2156-97-0</t>
+          <t>1338-02-9</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1808,23 +1856,18 @@
       <c r="D65" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>CCCCCCCCCCCCOC(=O)C=C</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A mixture of: 2,2-dimethoxyethanal (this component is considered to be anhydrous in terms of identity, structure and composition. However, 2,2-dimethoxyethanal will exist in a hydrated form. 60% anhydrous is equivalent to 70.4% hydrate); water(Including free water and water in hydrated 2,2-dimethoxyethanal)</t>
+          <t>Copper dichromium tetraoxide</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>51673-84-8</t>
+          <t>12018-10-9</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1835,23 +1878,18 @@
       <c r="D66" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>COC(OC)C=O</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Reaction mass of 3-(difluoromethyl)-1-methyl-N-[(1RS,4SR,9RS)-1,2,3,4-tetrahydro-9-isopropyl-1,4-methanonaphthalen-5-yl]pyrazole-4-carboxamide and of 3-(difluoromethyl)-1-methyl-N-[(1RS,4SR,9SR)-1,2,3,4-tetrahydro-9-isopropyl-1,4-methanonaphthalen-5-yl]pyrazole-4-carboxamide; isopyrazam</t>
+          <t>(3-ammonio-4-methoxyphenyl)(2-hydroxyethyl)ammonium sulphate</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>881685-58-1</t>
+          <t>83763-48-8</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1862,23 +1900,18 @@
       <c r="D67" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>CC(C)C1C2CCC1C1=C2C=CC=C1N=C(O)C1=CN(C)N=C1C(F)F</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2-methyl-p-phenylenediamine sulfate</t>
+          <t>[x·sodium, y·lithium, x+y=3] 4-amino-3[[4-[[4-[(2-amino-4-hydroxyphenyl)diazenyl]phenyl]amino]-3-sulfonato phenyl]diazenyl]-5-hydroxy-6-(phenydiazenyl)naphthalene-2,7-disulfonat, mixture of isomers</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>615-50-9</t>
+          <t>2218502-12-4</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1889,23 +1922,18 @@
       <c r="D68" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>[O-]S([O-])(=O)=O.CC1=C([NH3+])C=CC([NH3+])=C1</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Ethoxyquin</t>
+          <t>3-nitrotoluene</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>91-53-2</t>
+          <t>99-08-1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1916,23 +1944,18 @@
       <c r="D69" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>CCOC1=CC2=C(NC(C)(C)C=C2C)C=C1</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>(p-ammoniophenyl)bis(2-hydroxyethyl)ammonium sulphate</t>
+          <t>2,2'-[6-(4-methoxyphenyl)-1,3,5-triazine-2,4-diyl]bis{5-[(2-ethylhexyl)oxy]phenol}</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>54381-16-7</t>
+          <t>187393-00-6</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1943,23 +1966,18 @@
       <c r="D70" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>OS(O)(=O)=O.NC1=CC=C(C=C1)N(CCO)CCO</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1,3-divinylimidazolidin-2-one</t>
+          <t>5-chloro-2-(4-chlorophenoxy)phenol;[DCPP]</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>13811-50-2</t>
+          <t>3380-30-1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1970,23 +1988,18 @@
       <c r="D71" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>C=CN1CCN(C=C)C1=O</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6-hydroxyindole</t>
+          <t>Semicarbazide hydrochloride</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2380-86-1</t>
+          <t>563-41-7</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1997,50 +2010,40 @@
       <c r="D72" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>OC1=CC2=C(C=CN2)C=C1</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2,6-dibromo-4-cyanophenyl heptanoate</t>
+          <t>3-phenyl-7-[4-(tetrahydrofurfuryloxy)phenyl]-1,5-dioxa-s-indacen-2,6-dione</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>56634-95-8</t>
+          <t>134724-55-3</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>CCCCCCC(=O)OC1=C(Br)C=C(C=C1Br)C#N</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Dimethyl itaconate</t>
+          <t>1-(4-methyl-2-nitrophenylazo)-2-naphthol</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>617-52-7</t>
+          <t>2425-85-6</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2051,23 +2054,18 @@
       <c r="D74" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>COC(=O)CC(=C)C(=O)OC</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2-Pyridinecarboxylic acid, 4-amino-3,6-dichloro-</t>
+          <t>Bronopol</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>150114-71-9</t>
+          <t>52-51-7</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2078,23 +2076,18 @@
       <c r="D75" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>NC1=CC(Cl)=NC(C(O)=O)=C1Cl</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>4,11-diamino-2-(3-methoxypropyl)-1H-naphth[2,3-f]isoindol-1,3,5,10(2H)-tetrone</t>
+          <t>2-[[4-(diethylamino)-2-methylphenyl]azo]-5-nitrobenzene-1,3-dicarbonitrile</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>12217-80-0</t>
+          <t>84870-65-5</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2105,23 +2098,18 @@
       <c r="D76" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>COCCCN1C(=O)C2=C(C1=O)C(N)=C1C(=O)C3=CC=CC=C3C(=O)C1=C2N</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Nitrobenzene</t>
+          <t>C12-14-tert-alkyl ammonium 1-amino-9,10-dihydro-9,10-dioxo-4-(2,4,6-trimethylanilino)-anthracen-2-sulfonate</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>98-95-3</t>
+          <t>1379678-96-2</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2132,23 +2120,18 @@
       <c r="D77" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>[O-][N+](=O)C1=CC=CC=C1</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Terephthalic acid</t>
+          <t>Glutaral</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>100-21-0</t>
+          <t>111-30-8</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2159,23 +2142,18 @@
       <c r="D78" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>OC(=O)C1=CC=C(C=C1)C(O)=O</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Trisodium 5-hydroxy-1-(4-sulphophenyl)-4-(4-sulphophenylazo)pyrazole-3-carboxylate</t>
+          <t>Styrene</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1934-21-0</t>
+          <t>100-42-5</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2186,23 +2164,18 @@
       <c r="D79" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>[Na+].[Na+].[Na+].[O-]C(=O)C1=C(N=NC2=CC=C(C=C2)S([O-])(=O)=O)C(=O)N(N1)C1=CC=C(C=C1)S([O-])(=O)=O</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2,2'-dithiodi(benzoic acid)</t>
+          <t>1-[(2,4-dinitrophenyl)azo]-2-naphthol</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>119-80-2</t>
+          <t>3468-63-1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2213,23 +2186,18 @@
       <c r="D80" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>OC(=O)C1=C(SSC2=C(C=CC=C2)C(O)=O)C=CC=C1</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>4-aminophenol</t>
+          <t>Natural gas condensates (petroleum)</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>123-30-8</t>
+          <t>64741-47-5</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2240,23 +2208,18 @@
       <c r="D81" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>NC1=CC=C(O)C=C1</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>1-nitropropane</t>
+          <t>2,2'-methylenebis(6-(2H-benzotriazol-2-yl)-4-(1,1,3,3-tetramethylbutyl)phenol)</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>108-03-2</t>
+          <t>103597-45-1</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2267,23 +2230,18 @@
       <c r="D82" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>CCC[N+]([O-])=O</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2,4-diethyl-9H-thioxanthen-9-one</t>
+          <t>A mixture of: tetrasodium-phosphonoethane-1,2-dicarboxylate; hexasodium-phosphonobutane-1,2,3,4-tetracarboxylate</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>82799-44-8</t>
+          <t>143239-08-1</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2294,23 +2252,18 @@
       <c r="D83" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>CCC1=CC(CC)=C2SC3=CC=CC=C3C(=O)C2=C1</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>6-(phthalimido)peroxyhexanoic acid</t>
+          <t>N-(1,1-dimethyl-3-oxobutyl)acrylamide</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>128275-31-0</t>
+          <t>2873-97-4</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2321,23 +2274,18 @@
       <c r="D84" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>OOC(=O)CCCCCN1C(=O)C2=CC=CC=C2C1=O</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>1,3-dioxepane</t>
+          <t>Ethylbenzene</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>505-65-7</t>
+          <t>100-41-4</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2348,23 +2296,18 @@
       <c r="D85" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>C1CCOCOC1</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Pyrocatechol</t>
+          <t>Methyl-3-methoxyacrylate</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>120-80-9</t>
+          <t>5788-17-0</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2375,23 +2318,18 @@
       <c r="D86" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>OC1=C(O)C=CC=C1</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>5-amino-o-cresol</t>
+          <t>Pentasodium 7-(4-(4-(5-amino-4-sulfonato-2-(4-((2-(sulfonato-ethoxy)sulfonyl)phenylazo)phenylamino)-6-chloro-1,3,5-triazin-2-yl)amino-2-ureidophenylazo)naphtalene-1,3,6-trisulfonate</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2835-95-2</t>
+          <t>780759-89-9</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2402,23 +2340,18 @@
       <c r="D87" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>CC1=C(O)C=C(N)C=C1</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Benzonitrile, 3,3'-(2,3,5,6-tetrahydro-3,6-dioxopyrrolo[3,4-c]pyrrole-1,4-diyl)bis-</t>
+          <t>2,2,6,6-tetramethylpiperidinooxy</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>84632-50-8</t>
+          <t>2564-83-2</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2429,23 +2362,18 @@
       <c r="D88" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>O=C1NC(=C2C(=O)NC(=C12)C1=CC(=CC=C1)C#N)C1=CC=CC(=C1)C#N</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>1,1-dimethylpropyl 3,5,5-trimethylperoxyhexanoate</t>
+          <t>4-[N-ethyl-N-(2-hydroxyethyl)amino]-1-(2-hydroxyethyl)amino-2-nitrobenzene, monohydrochloride</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>68860-54-8</t>
+          <t>132885-85-9</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2456,23 +2384,18 @@
       <c r="D89" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>CCC(C)(C)OOC(=O)CC(C)CC(C)(C)C</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Polyhaloalkene</t>
+          <t>Antimony trichloride</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>754-12-1</t>
+          <t>10025-91-9</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2483,77 +2406,58 @@
       <c r="D90" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>FC(=C)C(F)(F)F</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>4,4'-[(3,3'-dichloro[1,1'-biphenyl]-4,4'-diyl)bis(azo)]bis[2,4-dihydro-5-methyl-2-phenyl-3H-pyrazol-3-one]</t>
+          <t>Estradiol</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>3520-72-7</t>
+          <t>50-28-2</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>CC1=C(N=NC2=CC=C(C=C2Cl)C2=CC(Cl)=C(C=C2)N=NC2=C(C)NN(C2=O)C2=CC=CC=C2)C(=O)N(N1)C1=CC=CC=C1</t>
-        </is>
-      </c>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Bis(2-methylisouronium) sulphate</t>
+          <t>4,4',4''-(ethan-1,1,1-triyl)triphenol</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>52328-05-9</t>
+          <t>27955-94-8</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>COC(N)=N.COC(N)=N.OS(O)(=O)=O</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2-amino-5-methylthiazole</t>
+          <t>5-nitro-2-(2-methyl-4-(diethylamino)phenylazo)thiazole</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>7305-71-7</t>
+          <t>70693-64-0</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2564,23 +2468,18 @@
       <c r="D93" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>CC1=CN=C(N)S1</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Tetradecyl acrylate</t>
+          <t>Diphenylamine</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>21643-42-5</t>
+          <t>122-39-4</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2591,23 +2490,18 @@
       <c r="D94" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>CCCCCCCCCCCCCCOC(=O)C=C</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Climbazole</t>
+          <t>Dodecyl acrylate</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>38083-17-9</t>
+          <t>2156-97-0</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2618,23 +2512,18 @@
       <c r="D95" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>CC(C)(C)C(=O)C(OC1=CC=C(Cl)C=C1)N1C=CN=C1</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>N-[2-[(2-bromo-4,6-dinitrophenyl)azo]-5-(diallylamino)-4-methoxyphenyl]acetamide</t>
+          <t>A mixture of: 2,2-dimethoxyethanal (this component is considered to be anhydrous in terms of identity, structure and composition. However, 2,2-dimethoxyethanal will exist in a hydrated form. 60% anhydrous is equivalent to 70.4% hydrate); water(Including free water and water in hydrated 2,2-dimethoxyethanal)</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>51868-46-3</t>
+          <t>51673-84-8</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2645,23 +2534,18 @@
       <c r="D96" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>COC1=CC(N=NC2=C(C=C(C=C2Br)[N+]([O-])=O)[N+]([O-])=O)=C(NC(C)=O)C=C1N(CC=C)CC=C</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Potassium superoxide</t>
+          <t>Reaction mass of 3-(difluoromethyl)-1-methyl-N-[(1RS,4SR,9RS)-1,2,3,4-tetrahydro-9-isopropyl-1,4-methanonaphthalen-5-yl]pyrazole-4-carboxamide and of 3-(difluoromethyl)-1-methyl-N-[(1RS,4SR,9SR)-1,2,3,4-tetrahydro-9-isopropyl-1,4-methanonaphthalen-5-yl]pyrazole-4-carboxamide; isopyrazam</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>12030-88-5</t>
+          <t>881685-58-1</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2672,23 +2556,18 @@
       <c r="D97" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>[O--].[O--].[K+]</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>1-naphthol</t>
+          <t>2-methyl-p-phenylenediamine sulfate</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>90-15-3</t>
+          <t>615-50-9</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2699,23 +2578,18 @@
       <c r="D98" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>OC1=CC=CC2=CC=CC=C12</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>N,N'-(2-chloro-1,4-phenylene)bis[4-[(4-chloro-2-nitrophenyl)azo]-3-hydroxynaphthalene-2-carboxamide]</t>
+          <t>Ethoxyquin</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>35869-64-8</t>
+          <t>91-53-2</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2726,23 +2600,18 @@
       <c r="D99" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>OC1=C(C=C2C=CC=CC2=C1N=NC1=C(C=C(Cl)C=C1)[N+]([O-])=O)C(=O)NC1=CC(Cl)=C(NC(=O)C2=C(O)C(N=NC3=C(C=C(Cl)C=C3)[N+]([O-])=O)=C3C=CC=CC3=C2)C=C1</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Carbon tetrachloride</t>
+          <t>(p-ammoniophenyl)bis(2-hydroxyethyl)ammonium sulphate</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>56-23-5</t>
+          <t>54381-16-7</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2753,23 +2622,18 @@
       <c r="D100" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>ClC(Cl)(Cl)Cl</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>clothianidin (ISO); (E)-1-(2-chloro-1,3-thiazol-5-ylmethyl)-3-methyl-2-nitroguanidine</t>
+          <t>Monosodium aqua-[5-[[2,4-dihydroxy-5-[(2-hydroxy-3,5-dinitrophenyl)azo]phenyl]azo]-2-naphthalensulfonate], iron complex</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>210880-92-5</t>
+          <t>126851-40-9</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2780,23 +2644,18 @@
       <c r="D101" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>CN\C(NCC1=CN=C(Cl)S1)=N/[N+]([O-])=O</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2-furaldehyde</t>
+          <t>1,3-divinylimidazolidin-2-one</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>98-01-1</t>
+          <t>13811-50-2</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2807,23 +2666,18 @@
       <c r="D102" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>O=CC1=CC=CO1</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>1,1-difluoroethane</t>
+          <t>6-hydroxyindole</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>75-37-6</t>
+          <t>2380-86-1</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2834,50 +2688,36 @@
       <c r="D103" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>CC(F)F</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Acetamide, N-[5-[bis(2-methoxyethyl)amino]-2-[2-(2,6-dicyano-4-nitrophenyl)diazenyl]phenyl]-</t>
+          <t>2,6-dibromo-4-cyanophenyl heptanoate</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>51553-03-8</t>
+          <t>56634-95-8</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>COCCN(CCOC)C1=CC=C(N=NC2=C(C=C(C=C2C#N)N(=O)=O)C#N)C(NC(C)=O)=C1</t>
-        </is>
-      </c>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Ammonium 2,3,3,3-tetrafluoro-2-(heptafluoropropoxy)propanoate</t>
+          <t>Dicopper hydroxide phosphate</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>62037-80-3</t>
+          <t>12158-74-6</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2888,23 +2728,18 @@
       <c r="D105" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>[NH4+].[O-]C(=O)C(F)(OC(F)(F)C(F)(F)C(F)(F)F)C(F)(F)F</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>1,2-diethoxypropane</t>
+          <t>Dimethyl itaconate</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>10221-57-5</t>
+          <t>617-52-7</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2915,50 +2750,40 @@
       <c r="D106" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>CCOCC(C)OCC</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2-nitrotoluene</t>
+          <t>2-Pyridinecarboxylic acid, 4-amino-3,6-dichloro-</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>88-72-2</t>
+          <t>150114-71-9</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>CC1=CC=CC=C1[N+]([O-])=O</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>6-methoxy-N2-methylpyridine-2,3-diamine dihydrochloride</t>
+          <t>4,11-diamino-2-(3-methoxypropyl)-1H-naphth[2,3-f]isoindol-1,3,5,10(2H)-tetrone</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>83732-72-3</t>
+          <t>12217-80-0</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2969,23 +2794,18 @@
       <c r="D108" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Cl.Cl.CNC1=NC(OC)=CC=C1N</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2,2'-(1,3-phenylene)bis(4,5-dihydro-1,3-oxazole)</t>
+          <t>Nitrobenzene</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>34052-90-9</t>
+          <t>98-95-3</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2996,23 +2816,18 @@
       <c r="D109" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>C1CN=C(O1)C1=CC(=CC=C1)C1=NCCO1</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Bis[(3,4-epoxycyclohexyl)methyl] adipate</t>
+          <t>Terephthalic acid</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>3130-19-6</t>
+          <t>100-21-0</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3023,23 +2838,18 @@
       <c r="D110" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>O=C(CCCCC(=O)OCC1CCC2OC2C1)OCC1CCC2OC2C1</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>1-(allyloxy)-2-methyl-1-oxopropan-2-yl 2-chloro-5-[3-methyl-2,6-dioxo-4-(trifluoromethyl)-3,6-dihydropyrimidin-1(2H)-yl]benzoate</t>
+          <t>Trisodium 5-hydroxy-1-(4-sulphophenyl)-4-(4-sulphophenylazo)pyrazole-3-carboxylate</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>134605-64-4</t>
+          <t>1934-21-0</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3050,23 +2860,18 @@
       <c r="D111" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>CN1C(=O)N(C(=O)C=C1C(F)(F)F)C1=CC(C(=O)OC(C)(C)C(=O)OCC=C)=C(Cl)C=C1</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>7-oxabicyclo[4.1.0]hept-3-ylmethyl 7-oxabicyclo[4.1.0]heptane-3-carboxylate</t>
+          <t>Barium bis[2-chloro-5-[(2-hydroxy-1-naphthyl)azo]toluene-4-sulphonate]</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2386-87-0</t>
+          <t>5160-02-1</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3077,23 +2882,18 @@
       <c r="D112" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>O=C(OCC1CCC2OC2C1)C1CCC2OC2C1</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>3,3'-[[4-[(2,6-dichloro-4-nitrophenyl)azo]phenyl]imino]bispropiononitrile</t>
+          <t>2,2'-dithiodi(benzoic acid)</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>67923-43-7</t>
+          <t>119-80-2</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3104,23 +2904,18 @@
       <c r="D113" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>[O-][N+](=O)C1=CC(Cl)=C(N=NC2=CC=C(C=C2)N(CCC#N)CCC#N)C(Cl)=C1</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Ethanone, 2,2-dichloro-1-[5-(2-furanyl)-2,2-dimethyl-3-oxazolidinyl]-</t>
+          <t>4-aminophenol</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>121776-33-8</t>
+          <t>123-30-8</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3131,23 +2926,18 @@
       <c r="D114" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>CC1(C)OC(CN1C(=O)C(Cl)Cl)C1=CC=CO1</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>4-hydroxy-2,2,6,6-tetramethylpiperidinoxyl</t>
+          <t>Aromatic hydrocarbons, C8, catalytic reforming-derived</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2226-96-2</t>
+          <t>91995-18-5</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3158,23 +2948,18 @@
       <c r="D115" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>CC1(C)CC(O)CC(C)(C)N1[O]</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>(3E)-dec-3-en-2-one</t>
+          <t>N-ethyl-o(or p)-toluenesulphonamide</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>18402-84-1</t>
+          <t>8047-99-2</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3185,23 +2970,18 @@
       <c r="D116" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>CCCCCC\C=C\C(C)=O</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Didecyldimethylammonium chloride</t>
+          <t>1-nitropropane</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>7173-51-5</t>
+          <t>108-03-2</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3212,23 +2992,18 @@
       <c r="D117" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>[Cl-].CCCCCCCCCC[N+](C)(C)CCCCCCCCCC</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>tert-butyl methyl ether</t>
+          <t>2,4-diethyl-9H-thioxanthen-9-one</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>1634-04-4</t>
+          <t>82799-44-8</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3239,50 +3014,40 @@
       <c r="D118" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>COC(C)(C)C</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>o-toluidine</t>
+          <t>6-(phthalimido)peroxyhexanoic acid</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>95-53-4</t>
+          <t>128275-31-0</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>CC1=C(N)C=CC=C1</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>4-nitrotoluene</t>
+          <t>1,3-dioxepane</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>99-99-0</t>
+          <t>505-65-7</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3293,23 +3058,18 @@
       <c r="D120" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>CC1=CC=C(C=C1)[N+]([O-])=O</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>1,3,5-Triazine, 2,4,6-tris([1,1'-biphenyl]-4-yl)-</t>
+          <t>Pyrocatechol</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>31274-51-8</t>
+          <t>120-80-9</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3320,23 +3080,18 @@
       <c r="D121" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>C1=CC=C(C=C1)C1=CC=C(C=C1)C1=NC(=NC(=N1)C1=CC=C(C=C1)C1=CC=CC=C1)C1=CC=C(C=C1)C1=CC=CC=C1</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Dimethyl disulphide</t>
+          <t>5-amino-o-cresol</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>624-92-0</t>
+          <t>2835-95-2</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3347,23 +3102,18 @@
       <c r="D122" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>CSSC</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Ametryn</t>
+          <t>Dimethylbis(oleoyloxy)stannane</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>834-12-8</t>
+          <t>3865-34-7</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3374,23 +3124,18 @@
       <c r="D123" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>CCNC1=NC(SC)=NC(NC(C)C)=N1</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>4,11-diamino-2-[3-(2-methoxyethoxy)propyl]-1H-naphth[2,3-f]isoindole-1,3,5,10(2H)-tetrone</t>
+          <t>Benzonitrile, 3,3'-(2,3,5,6-tetrahydro-3,6-dioxopyrrolo[3,4-c]pyrrole-1,4-diyl)bis-</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>65059-45-2</t>
+          <t>84632-50-8</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3401,23 +3146,18 @@
       <c r="D124" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>COCCOCCCN1C(=O)C2=C(N)C3=C(C(N)=C2C1=O)C(=O)C1=CC=CC=C1C3=O</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Nitrapyrin</t>
+          <t>Copper(II) carbonate-copper(II) hydroxide (1:1)</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>1929-82-4</t>
+          <t>12069-69-1</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3428,23 +3168,18 @@
       <c r="D125" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>ClC1=CC=CC(=N1)C(Cl)(Cl)Cl</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2,4,6-trinitrotoluene</t>
+          <t>Antimony</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>118-96-7</t>
+          <t>7440-36-0</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3455,23 +3190,18 @@
       <c r="D126" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>CC1=C(C=C(C=C1[N+]([O-])=O)[N+]([O-])=O)[N+]([O-])=O</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>4-methylanisole</t>
+          <t>Hydrocarbons, C4-11, naphtha-cracking, arom.-free</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>104-93-8</t>
+          <t>92045-63-1</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3482,23 +3212,18 @@
       <c r="D127" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>COC1=CC=C(C)C=C1</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>4,4'-methylenedianiline</t>
+          <t>1,1-dimethylpropyl 3,5,5-trimethylperoxyhexanoate</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>101-77-9</t>
+          <t>68860-54-8</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3509,23 +3234,18 @@
       <c r="D128" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>NC1=CC=C(CC2=CC=C(N)C=C2)C=C1</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Chloroform</t>
+          <t>Polyhaloalkene</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>67-66-3</t>
+          <t>754-12-1</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3536,23 +3256,18 @@
       <c r="D129" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>ClC(Cl)Cl</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Bromoform</t>
+          <t>4,4'-[(3,3'-dichloro[1,1'-biphenyl]-4,4'-diyl)bis(azo)]bis[2,4-dihydro-5-methyl-2-phenyl-3H-pyrazol-3-one]</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>75-25-2</t>
+          <t>3520-72-7</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3563,50 +3278,40 @@
       <c r="D130" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>BrC(Br)Br</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Octylphosphonic acid</t>
+          <t>Bis(2-methylisouronium) sulphate</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>4724-48-5</t>
+          <t>52328-05-9</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>CCCCCCCCP(O)(O)=O</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>1,2-diacetoxybut-3-ene</t>
+          <t>Quaternary ammonium compounds, di-C12-18-alkyldimethyl, chlorides</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>18085-02-4</t>
+          <t>68391-05-9</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3617,23 +3322,18 @@
       <c r="D132" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>[H][C@](COC(C)=O)(OC(C)=O)C=C</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>3,3,4,4,5,5,6,6,7,7,8,8,8-tridecafluorooctanesulphonic acid</t>
+          <t>2-amino-5-methylthiazole</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>27619-97-2</t>
+          <t>7305-71-7</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3644,23 +3344,18 @@
       <c r="D133" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>OS(=O)(=O)CCC(F)(F)C(F)(F)C(F)(F)C(F)(F)C(F)(F)C(F)(F)F</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>N-[2-[(2-chloro-4,6-dinitrophenyl)azo]-5-(diethylamino)phenyl]acetamide</t>
+          <t>Tetradecyl acrylate</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>66557-45-7</t>
+          <t>21643-42-5</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3671,23 +3366,18 @@
       <c r="D134" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>CCN(CC)C1=CC=C(N=NC2=C(C=C(C=C2Cl)[N+]([O-])=O)[N+]([O-])=O)C(NC(C)=O)=C1</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Trifluoroiodomethane</t>
+          <t>Ligroine</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2314-97-8</t>
+          <t>8032-32-4</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3698,23 +3388,18 @@
       <c r="D135" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>FC(F)(F)I</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sodium dibutyldithiocarbamate</t>
+          <t>Climbazole</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>136-30-1</t>
+          <t>38083-17-9</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3725,23 +3410,18 @@
       <c r="D136" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>[Na+].CCCCN(CCCC)C([S-])=S</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Methanesulfonamide, N-[2-[(4,6-dimethoxy-1,3,5-triazin-2-yl)carbonyl]-6-fluorophenyl]-1,1-difluoro-N-methyl-</t>
+          <t>N-[2-[(2-bromo-4,6-dinitrophenyl)azo]-5-(diallylamino)-4-methoxyphenyl]acetamide</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>874195-61-6</t>
+          <t>51868-46-3</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3752,23 +3432,18 @@
       <c r="D137" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>COC1=NC(=NC(OC)=N1)C(=O)C1=C(N(C)S(=O)(=O)C(F)F)C(F)=CC=C1</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>7a-ethyldihydro-1H,3H,5H-oxazolo[3,4-c]oxazole</t>
+          <t>Potassium superoxide</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>7747-35-5</t>
+          <t>12030-88-5</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -3779,23 +3454,18 @@
       <c r="D138" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>CCC12COCN1COC2</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Hydrogen peroxide-urea</t>
+          <t>1-naphthol</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>124-43-6</t>
+          <t>90-15-3</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -3805,24 +3475,19 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>OO.NC(N)=O</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2-chloropropane</t>
+          <t>Copper sulphate</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>75-29-6</t>
+          <t>7758-98-7</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -3833,23 +3498,18 @@
       <c r="D140" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>CC(C)Cl</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Allyl alcohol</t>
+          <t>N,N'-(2-chloro-1,4-phenylene)bis[4-[(4-chloro-2-nitrophenyl)azo]-3-hydroxynaphthalene-2-carboxamide]</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>107-18-6</t>
+          <t>35869-64-8</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3860,23 +3520,18 @@
       <c r="D141" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>OCC=C</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2-phenoxyethanol</t>
+          <t>2,2-dimethylpropan-1-ol, tribromo derivative; 3-bromo-2,2-bis(bromomethyl)propan-1-ol</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>122-99-6</t>
+          <t>36483-57-5</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -3887,23 +3542,18 @@
       <c r="D142" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>OCCOC1=CC=CC=C1</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>4-Methylsulfonyl-2-nitro benzoic acid</t>
+          <t>Carbon tetrachloride</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>110964-79-9</t>
+          <t>56-23-5</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -3914,23 +3564,18 @@
       <c r="D143" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>CS(=O)(=O)C1=CC(=C(C=C1)C(O)=O)[N+]([O-])=O</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>N-nitro-N-(3-methyl-3,6-dihydro-2H-1,3,5-oxadiazin-4-yl)amine</t>
+          <t>clothianidin (ISO); (E)-1-(2-chloro-1,3-thiazol-5-ylmethyl)-3-methyl-2-nitroguanidine</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>153719-38-1</t>
+          <t>210880-92-5</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -3941,23 +3586,18 @@
       <c r="D144" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>CN1COCN=C1N[N+]([O-])=O</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2-hydroxy-5-octanoylbenzoic acid</t>
+          <t>2-furaldehyde</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>78418-01-6</t>
+          <t>98-01-1</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -3968,23 +3608,18 @@
       <c r="D145" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>CCCCCCCC(=O)C1=CC(C(O)=O)=C(O)C=C1</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sodium 3-(2H-benzotriazol-2-yl)-5-sec-butyl-4-hydroxybenzenesulfonate</t>
+          <t>Distillates (petroleum), light straight-run gasoline fractionation stabilizer overheads</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>92484-48-5</t>
+          <t>68921-08-4</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -3995,23 +3630,18 @@
       <c r="D146" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>[Na+].CCC(C)C1=C(O)C(=CC(=C1)S([O-])(=O)=O)N1N=C2C=CC=CC2=N1</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Propylidynetrimethyl trimethacrylate</t>
+          <t>Distillates (petroleum), light distillate hydrotreating process, low-boiling</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>3290-92-4</t>
+          <t>68410-97-9</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -4022,23 +3652,18 @@
       <c r="D147" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>CCC(COC(=O)C(C)=C)(COC(=O)C(C)=C)COC(=O)C(C)=C</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2-chloroethanol</t>
+          <t>1,1-difluoroethane</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>107-07-3</t>
+          <t>75-37-6</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -4049,23 +3674,18 @@
       <c r="D148" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>OCCCl</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Naphthalene</t>
+          <t>Acetamide, N-[5-[bis(2-methoxyethyl)amino]-2-[2-(2,6-dicyano-4-nitrophenyl)diazenyl]phenyl]-</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>91-20-3</t>
+          <t>51553-03-8</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4076,23 +3696,18 @@
       <c r="D149" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>C1=CC2=CC=CC=C2C=C1</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>N-[2-[(2-bromo-4,6-dinitrophenyl)azo]-5-(diethylamino)phenyl]acetamide</t>
+          <t>Ammonium 2,3,3,3-tetrafluoro-2-(heptafluoropropoxy)propanoate</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>52697-38-8</t>
+          <t>62037-80-3</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -4103,23 +3718,18 @@
       <c r="D150" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>CCN(CC)C1=CC=C(N=NC2=C(C=C(C=C2Br)[N+]([O-])=O)[N+]([O-])=O)C(NC(C)=O)=C1</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Benzenesulfonic acid, 3,3'-[[6-(4-morpholinyl)-1,3,5-triazine-2,4-diyl]bis[imino[2-(acetylamino)-4,1-phenylene]-2,1-diazenediyl]]bis-, sodium salt (1:2)</t>
+          <t>Copper oxide</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>130201-55-7</t>
+          <t>1317-38-0</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -4130,23 +3740,18 @@
       <c r="D151" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>[Na+].[Na+].CC(=O)NC1=C(C=CC(NC2=NC(=NC(NC3=CC(NC(C)=O)=C(C=C3)N=NC3=CC=CC(=C3)S([O-])(=O)=O)=N2)N2CCOCC2)=C1)N=NC1=CC=CC(=C1)S([O-])(=O)=O</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Pirimiphos-methyl</t>
+          <t>1,2-diethoxypropane</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>29232-93-7</t>
+          <t>10221-57-5</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -4157,50 +3762,40 @@
       <c r="D152" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>CCN(CC)C1=NC(OP(=S)(OC)OC)=CC(C)=N1</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2-(2-ethoxyethoxy)ethanol</t>
+          <t>2-nitrotoluene</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>111-90-0</t>
+          <t>88-72-2</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>CCOCCOCCO</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>3-anilino-5-methyl-5-(4-phenoxyphenyl)-1,3-oxazolidine-2,4-dione;famoxadone (ISO)</t>
+          <t>6-methoxy-N2-methylpyridine-2,3-diamine dihydrochloride</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>131807-57-3</t>
+          <t>83732-72-3</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -4211,23 +3806,18 @@
       <c r="D154" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>CC1(OC(=O)N(NC2=CC=CC=C2)C1=O)C1=CC=C(OC2=CC=CC=C2)C=C1</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>(1E)-1-chloro-3,3,3-trifluoroprop-1-ene</t>
+          <t>Copper di(acetate)</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>102687-65-0</t>
+          <t>142-71-2</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -4238,23 +3828,18 @@
       <c r="D155" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>FC(F)(F)\C=C\Cl</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Bis(4-chlorophenyl) sulphone</t>
+          <t>2,2'-(1,3-phenylene)bis(4,5-dihydro-1,3-oxazole)</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>80-07-9</t>
+          <t>34052-90-9</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -4265,23 +3850,18 @@
       <c r="D156" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>ClC1=CC=C(C=C1)S(=O)(=O)C1=CC=C(Cl)C=C1</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>3,3,4,4,5,5,6,6,7,7,8,8,8-tridecafluorooctan-1-ol</t>
+          <t>Bis[(3,4-epoxycyclohexyl)methyl] adipate</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>647-42-7</t>
+          <t>3130-19-6</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -4292,23 +3872,18 @@
       <c r="D157" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>OCCC(F)(F)C(F)(F)C(F)(F)C(F)(F)C(F)(F)C(F)(F)F</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>N-(5-chloro-2-methylphenyl)-3-hydroxy-4-[[2-methoxy-5-[(phenylamino)carbonyl]phenyl]azo]naphthalene-2-carboxamide</t>
+          <t>1-(allyloxy)-2-methyl-1-oxopropan-2-yl 2-chloro-5-[3-methyl-2,6-dioxo-4-(trifluoromethyl)-3,6-dihydropyrimidin-1(2H)-yl]benzoate</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>68227-78-1</t>
+          <t>134605-64-4</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -4319,23 +3894,18 @@
       <c r="D158" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>COC1=C(C=C(C=C1)C(=O)NC1=CC=CC=C1)N=NC1=C2C=CC=CC2=CC(C(=O)NC2=C(C)C=CC(Cl)=C2)=C1O</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>4,4-dimethyl-3,5,8-trioxabicyclo[5.1.0]octane</t>
+          <t>7-oxabicyclo[4.1.0]hept-3-ylmethyl 7-oxabicyclo[4.1.0]heptane-3-carboxylate</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>57280-22-5</t>
+          <t>2386-87-0</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -4346,23 +3916,18 @@
       <c r="D159" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>CC1(C)OCC2OC2CO1</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2-ethoxyethyl {4-[2,6-dioxo-7-(4-propoxyphenyl)-2,6-dihydrobenzo[1,2-b:4,5-b']difuran-3-yl]phenoxy}acetate</t>
+          <t>3,3'-[[4-[(2,6-dichloro-4-nitrophenyl)azo]phenyl]imino]bispropiononitrile</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>126877-06-3</t>
+          <t>67923-43-7</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -4373,23 +3938,18 @@
       <c r="D160" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>CCCOC1=CC=C(C=C1)C1=C2C=C3OC(=O)C(=C3C=C2OC1=O)C1=CC=C(OCC(=O)OCCOCC)C=C1</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>N-[2-[(2,6-dicyano-4-nitrophenyl)azo]-5-(diethylamino)phenyl]acetamide</t>
+          <t>Ethanone, 2,2-dichloro-1-[5-(2-furanyl)-2,2-dimethyl-3-oxazolidinyl]-</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>41642-51-7</t>
+          <t>121776-33-8</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -4400,23 +3960,18 @@
       <c r="D161" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>CCN(CC)C1=CC(NC(C)=O)=C(C=C1)N=NC1=C(C=C(C=C1C#N)[N+]([O-])=O)C#N</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2-isopropyl-9H-thioxanthen-9-one</t>
+          <t>2-(acetylamino)-N-benzyl-3-methoxypropanamide</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>5495-84-1</t>
+          <t>175481-26-2</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -4427,23 +3982,18 @@
       <c r="D162" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>CC(C)C1=CC2=C(SC3=C(C=CC=C3)C2=O)C=C1</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Cyclohexanone oxime</t>
+          <t>Naphtha (petroleum), hydrodesulfurized heavy</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>100-64-1</t>
+          <t>64742-82-1</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -4454,23 +4004,18 @@
       <c r="D163" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>ON=C1CCCCC1</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>3-methyl-1-phenyl-5-pyrazolone</t>
+          <t>4-hydroxy-2,2,6,6-tetramethylpiperidinoxyl</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>89-25-8</t>
+          <t>2226-96-2</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -4481,23 +4026,18 @@
       <c r="D164" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>CC1=NN(C(=O)C1)C1=CC=CC=C1</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>1-Propene, 1,3,3,3-tetrafluoro-</t>
+          <t>Reaction product of: poly(oxy(methyl-1,2-ethanediyl)), αhydro-ω-((chlorocarbonyl)oxy)-, ether with 2,2-bis(hydroxymethyl)-1,3-propanediol with potassium 1,1-dimethylethylperoxalate</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>1645-83-6</t>
+          <t>203574-04-3</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -4508,23 +4048,18 @@
       <c r="D165" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>FC=CC(F)(F)F</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Norflurane</t>
+          <t>coconut oil, reaction products with glycerol esters of 3,5-bis(1,1-dimethylethyl)-4-hydroxybenzenepropanoic acid</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>811-97-2</t>
+          <t>179986-09-5</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -4535,23 +4070,18 @@
       <c r="D166" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>FCC(F)(F)F</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>p-benzoquinone dioxime</t>
+          <t>(3E)-dec-3-en-2-one</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>105-11-3</t>
+          <t>18402-84-1</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4562,23 +4092,18 @@
       <c r="D167" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>ON=C1C=CC(C=C1)=NO</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>glyoxal … %; ethandial … %</t>
+          <t>Copper(2+) tetrafluoroborate(1-)</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>107-22-2</t>
+          <t>38465-60-0</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -4589,23 +4114,18 @@
       <c r="D168" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>O=CC=O</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Dihydrogen (ethyl)[4-[4-[ethyl(3-sulphonatobenzyl)]amino]-2'-sulphonatobenzhydrylidene]cyclohexa-2,5-dien-1-ylidene](3-sulphonatobenzyl)ammonium, disodium salt</t>
+          <t>Didecyldimethylammonium chloride</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>3844-45-9</t>
+          <t>7173-51-5</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -4616,23 +4136,18 @@
       <c r="D169" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>[Na+].[Na+].CCN(CC1=CC(=CC=C1)S([O-])(=O)=O)C1=CC=C(C=C1)C(=C1C=CC(C=C1)=[N+](CC)CC1=CC(=CC=C1)S([O-])(=O)=O)C1=C(C=CC=C1)S([O-])(=O)=O</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Tetrahydro-1,3,4,6-tetrakis(hydroxymethyl)imidazo[4,5-d]imidazole-2,5(1H,3H)-dione</t>
+          <t>tert-butyl methyl ether</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>5395-50-6</t>
+          <t>1634-04-4</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -4643,50 +4158,40 @@
       <c r="D170" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>OCN1C2C(N(CO)C1=O)N(CO)C(=O)N2CO</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Tris[2-chloro-1-(chloromethyl)ethyl] phosphate</t>
+          <t>o-toluidine</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>13674-87-8</t>
+          <t>95-53-4</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>ClCC(CCl)OP(=O)(OC(CCl)CCl)OC(CCl)CCl</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>4,4-dimethyloxazolidine</t>
+          <t>4-nitrotoluene</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>51200-87-4</t>
+          <t>99-99-0</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -4697,23 +4202,18 @@
       <c r="D172" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>CC1(C)COCN1</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>3-chloropropane-1,2-diol</t>
+          <t>1,3,5-Triazine, 2,4,6-tris([1,1'-biphenyl]-4-yl)-</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>96-24-2</t>
+          <t>31274-51-8</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -4724,23 +4224,18 @@
       <c r="D173" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>OCC(O)CCl</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ethyl 5,5-diphenyl-2-isoxazoline-3-carboxylate</t>
+          <t>Dimethyl disulphide</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>163520-33-0</t>
+          <t>624-92-0</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -4751,23 +4246,18 @@
       <c r="D174" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>CCOC(=O)C1=NOC(C1)(C1=CC=CC=C1)C1=CC=CC=C1</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Diphenyl carbonate</t>
+          <t>Decamethylcyclopentasiloxane</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>102-09-0</t>
+          <t>541-02-6</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -4778,23 +4268,18 @@
       <c r="D175" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>O=C(OC1=CC=CC=C1)OC1=CC=CC=C1</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>1,2-benzisothiazol-3(2H)-one</t>
+          <t>Natural gas (petroleum), raw liq. mix</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2634-33-5</t>
+          <t>64741-48-6</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -4805,50 +4290,40 @@
       <c r="D176" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>O=C1NSC2=C1C=CC=C2</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2,6-dibromo-4-cyanophenyl octanoate</t>
+          <t>Ametryn</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>1689-99-2</t>
+          <t>834-12-8</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>CCCCCCCC(=O)OC1=C(Br)C=C(C=C1Br)C#N</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2-{2-chloro-4-mesyl-3-[(tetrahydrofuran-2-ylmethoxy)methyl]benzoyl}cyclohexane-1,3-dione</t>
+          <t>reaction mass of 5-chloro-2-methyl-4-isothiazolin-3-one and 2-methyl-2H -isothiazol-3-one</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>473278-76-1</t>
+          <t>55965-84-9</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -4859,23 +4334,18 @@
       <c r="D178" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>CS(=O)(=O)C1=C(COCC2CCCO2)C(Cl)=C(C=C1)C(=O)C1C(=O)CCCC1=O</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>1,1,2-trichloroethane</t>
+          <t>4,11-diamino-2-[3-(2-methoxyethoxy)propyl]-1H-naphth[2,3-f]isoindole-1,3,5,10(2H)-tetrone</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>79-00-5</t>
+          <t>65059-45-2</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -4886,23 +4356,18 @@
       <c r="D179" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>ClCC(Cl)Cl</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Isophthalic acid</t>
+          <t>Copper dihydroxide</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>121-91-5</t>
+          <t>20427-59-2</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -4913,23 +4378,18 @@
       <c r="D180" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>OC(=O)C1=CC(=CC=C1)C(O)=O</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>4,4'-[(3,3'-dichloro[1,1'-biphenyl]-4,4'-diyl)bis(azo)]bis[2,4-dihydro-5-methyl-2-(p-tolyl)-3H-pyrazol-3-one]</t>
+          <t>Nitrapyrin</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>15793-73-4</t>
+          <t>1929-82-4</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -4940,23 +4400,18 @@
       <c r="D181" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>CC1=NN(C(=O)C1N=NC1=CC=C(C=C1Cl)C1=CC(Cl)=C(C=C1)N=NC1C(C)=NN(C1=O)C1=CC=C(C)C=C1)C1=CC=C(C)C=C1</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2-[[4-[(2-cyanoethyl)(2-phenylethyl)amino]phenyl]azo]-5-nitrobenzonitrile</t>
+          <t>2,4,6-trinitrotoluene</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>24610-00-2</t>
+          <t>118-96-7</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -4967,23 +4422,18 @@
       <c r="D182" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>[O-][N+](=O)C1=CC(C#N)=C(C=C1)N=NC1=CC=C(C=C1)N(CCC#N)CCC1=CC=CC=C1</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>3-methyl-2-butenal</t>
+          <t>4-methylanisole</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>107-86-8</t>
+          <t>104-93-8</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -4994,23 +4444,18 @@
       <c r="D183" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>CC(C)=CC=O</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>N2-acetyl-N-benzyl-O-methyl-L-serinamide</t>
+          <t>4,4'-methylenedianiline</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>175481-37-5</t>
+          <t>101-77-9</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -5021,23 +4466,18 @@
       <c r="D184" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>COC[C@H](NC(C)=O)C(=O)NCC1=CC=CC=C1</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>[4-(2-hydroxyethoxy)-1,3-phenylene]diammonium sulphate</t>
+          <t>Chloroform</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>70643-20-8</t>
+          <t>67-66-3</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -5048,23 +4488,18 @@
       <c r="D185" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>OS(O)(=O)=O.NC1=CC(N)=C(OCCO)C=C1</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>N-[2,5-dichloro-4-(1,1,2,3,3,3-hexafluoropropoxy)-phenyl-aminocarbonyl]-2,6-difluorobenzamide</t>
+          <t>Bromoform</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>103055-07-8</t>
+          <t>75-25-2</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -5075,23 +4510,18 @@
       <c r="D186" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>FC(C(F)(F)F)C(F)(F)OC1=CC(Cl)=C(NC(=O)NC(=O)C2=C(F)C=CC=C2F)C=C1Cl</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Sodium 4-[(9,10-dihydro-4-hydroxy-9,10-dioxo-1-anthryl)amino]toluene-3-sulphonate</t>
+          <t>Octylphosphonic acid</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>4430-18-6</t>
+          <t>4724-48-5</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -5102,23 +4532,18 @@
       <c r="D187" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>[Na+].CC1=CC=C(NC2=CC=C(O)C3=C2C(=O)C2=CC=CC=C2C3=O)C(=C1)S([O-])(=O)=O</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>1H-Pyrazole, 3,4-dimethyl-, phosphate (1:1)</t>
+          <t>1,2-diacetoxybut-3-ene</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>202842-98-6</t>
+          <t>18085-02-4</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -5129,23 +4554,18 @@
       <c r="D188" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>OP(O)(O)=O.CC1=CNN=C1C</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2-methyl-2H-isothiazol-3-one</t>
+          <t>3,3,4,4,5,5,6,6,7,7,8,8,8-tridecafluorooctanesulphonic acid</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2682-20-4</t>
+          <t>27619-97-2</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -5156,23 +4576,18 @@
       <c r="D189" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>CN1SC=CC1=O</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Diethyl 4,4'-[(3,3'-dichloro[1,1'-biphenyl]-4,4'-diyl)bis(azo)]bis[4,5-dihydro-5-oxo-1-phenyl-1H-pyrazole-3-carboxylate]</t>
+          <t>N-[2-[(2-chloro-4,6-dinitrophenyl)azo]-5-(diethylamino)phenyl]acetamide</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>6358-87-8</t>
+          <t>66557-45-7</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -5183,23 +4598,18 @@
       <c r="D190" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>CCOC(=O)C1=NN(C(=O)C1N=NC1=CC=C(C=C1Cl)C1=CC(Cl)=C(C=C1)N=NC1C(=O)N(N=C1C(=O)OCC)C1=CC=CC=C1)C1=CC=CC=C1</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2-[[4-[(2-cyano-3-nitrophenyl)azo]-m-tolyl](2-acetoxyethyl)amino]ethyl acetate</t>
+          <t>Trifluoroiodomethane</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>30124-94-8</t>
+          <t>2314-97-8</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -5210,23 +4620,18 @@
       <c r="D191" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>CC(=O)OCCN(CCOC(C)=O)C1=CC=C(C=C1)N=NC1=C(C=C(C=C1)[N+]([O-])=O)C#N</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2,2,4-trimethylpentane</t>
+          <t>Sodium dibutyldithiocarbamate</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>540-84-1</t>
+          <t>136-30-1</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -5237,23 +4642,18 @@
       <c r="D192" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>CC(C)CC(C)(C)C</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Potassium 3,3,4,4,5,5,6,6,7,7,8,8,8-tridecafluorooctanesulphonate</t>
+          <t>Methanesulfonamide, N-[2-[(4,6-dimethoxy-1,3,5-triazin-2-yl)carbonyl]-6-fluorophenyl]-1,1-difluoro-N-methyl-</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>59587-38-1</t>
+          <t>874195-61-6</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -5264,23 +4664,18 @@
       <c r="D193" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>[K+].[O-]S(=O)(=O)CCC(F)(F)C(F)(F)C(F)(F)C(F)(F)C(F)(F)C(F)(F)F</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2,2',2''-(hexahydro-1,3,5-triazine-1,3,5-triyl)triethanol</t>
+          <t>7a-ethyldihydro-1H,3H,5H-oxazolo[3,4-c]oxazole</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>4719-04-4</t>
+          <t>7747-35-5</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -5291,50 +4686,40 @@
       <c r="D194" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>OCCN1CN(CCO)CN(CCO)C1</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>3,4-dihydro-2H-1,4-benzoxazin-6-ol</t>
+          <t>Hydrogen peroxide-urea</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>26021-57-8</t>
+          <t>124-43-6</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>OC1=CC2=C(OCCN2)C=C1</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>N-[2-[(2-chloro-4,6-dinitrophenyl)azo]-5-(diallylamino)-4-methoxyphenyl]acetamide</t>
+          <t>Copper iodide</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>85508-41-4</t>
+          <t>7681-65-4</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -5345,23 +4730,18 @@
       <c r="D196" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>COC1=C(C=C(NC(C)=O)C(=C1)N=NC1=C(C=C(C=C1Cl)[N+]([O-])=O)[N+]([O-])=O)N(CC=C)CC=C</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2-[(2-nitrophenyl)amino]ethanol</t>
+          <t>2-chloropropane</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>4926-55-0</t>
+          <t>75-29-6</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -5372,276 +4752,1656 @@
       <c r="D197" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>OCCNC1=C(C=CC=C1)[N+]([O-])=O</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
+          <t>Allyl alcohol</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>107-18-6</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2-phenoxyethanol</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>122-99-6</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>4-Methylsulfonyl-2-nitro benzoic acid</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>110964-79-9</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>N-nitro-N-(3-methyl-3,6-dihydro-2H-1,3,5-oxadiazin-4-yl)amine</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>153719-38-1</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2-hydroxy-5-octanoylbenzoic acid</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>78418-01-6</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Sodium 3-(2H-benzotriazol-2-yl)-5-sec-butyl-4-hydroxybenzenesulfonate</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>92484-48-5</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Propylidynetrimethyl trimethacrylate</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>3290-92-4</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2-chloroethanol</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>107-07-3</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Naphthalene</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>91-20-3</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>N-[2-[(2-bromo-4,6-dinitrophenyl)azo]-5-(diethylamino)phenyl]acetamide</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>52697-38-8</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2-Hydroxyethylmethacrylate, reaction products with proyleneoxide and Phthalic anhydride</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>1421695-64-8</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Benzenesulfonic acid, 3,3'-[[6-(4-morpholinyl)-1,3,5-triazine-2,4-diyl]bis[imino[2-(acetylamino)-4,1-phenylene]-2,1-diazenediyl]]bis-, sodium salt (1:2)</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>130201-55-7</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Pirimiphos-methyl</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>29232-93-7</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2-(2-ethoxyethoxy)ethanol</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>111-90-0</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>3-anilino-5-methyl-5-(4-phenoxyphenyl)-1,3-oxazolidine-2,4-dione;famoxadone (ISO)</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>131807-57-3</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>(1E)-1-chloro-3,3,3-trifluoroprop-1-ene</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>102687-65-0</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Bis(4-chlorophenyl) sulphone</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>80-07-9</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>3,3,4,4,5,5,6,6,7,7,8,8,8-tridecafluorooctan-1-ol</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>647-42-7</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>N-(5-chloro-2-methylphenyl)-3-hydroxy-4-[[2-methoxy-5-[(phenylamino)carbonyl]phenyl]azo]naphthalene-2-carboxamide</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>68227-78-1</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>4,4-dimethyl-3,5,8-trioxabicyclo[5.1.0]octane</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>57280-22-5</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Diphosphoric acid, copper salt</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>10102-90-6</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>N-[2-[(2,6-dicyano-4-nitrophenyl)azo]-5-(diethylamino)phenyl]acetamide</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>41642-51-7</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2-isopropyl-9H-thioxanthen-9-one</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>5495-84-1</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Cyclohexanone oxime</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>100-64-1</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>3-methyl-1-phenyl-5-pyrazolone</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>89-25-8</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Hydrocarbons, C6-rich, hydrotreated light naphtha distillates, solvent-refined</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>101316-67-0</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>1,7-Naphthalenedisulfonic acid, 4-amino-3-[(1E)-2-(2,4-disulfophenyl)diazenyl]-5-hydroxy-6-[(1E)-2-(4-nitro-2-sulfophenyl)diazenyl]-, sodium salt (1:5)</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2149571-68-4</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>1-Propene, 1,3,3,3-tetrafluoro-</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>1645-83-6</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Norflurane</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>811-97-2</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>p-benzoquinone dioxime</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>105-11-3</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>glyoxal … %; ethandial … %</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>107-22-2</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Dihydrogen (ethyl)[4-[4-[ethyl(3-sulphonatobenzyl)]amino]-2'-sulphonatobenzhydrylidene]cyclohexa-2,5-dien-1-ylidene](3-sulphonatobenzyl)ammonium, disodium salt</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>3844-45-9</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Tetrahydro-1,3,4,6-tetrakis(hydroxymethyl)imidazo[4,5-d]imidazole-2,5(1H,3H)-dione</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>5395-50-6</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Tris[2-chloro-1-(chloromethyl)ethyl] phosphate</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>13674-87-8</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Tetraammineplatinum dinitrate</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>20634-12-2</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Dimethyltin dichloride</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>753-73-1</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>4,4-dimethyloxazolidine</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>51200-87-4</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>3-chloropropane-1,2-diol</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>96-24-2</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>ethyl 5,5-diphenyl-2-isoxazoline-3-carboxylate</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>163520-33-0</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Polymer with 2-Butyne-1,4-Diol and (Chloromethyl-)Oxirane, Brominated, Dehydrochlorinated, Methoxylated</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>86675-46-9</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Diphenyl carbonate</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>102-09-0</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Copper sulphide</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>1317-40-4</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>1,2-benzisothiazol-3(2H)-one</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>2634-33-5</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Lanthanum chloride, anhydrous</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>10099-58-8</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Dicopper sulphide</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>22205-45-4</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Silver sodium zirconium hydrogenphosphate</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>155925-27-2</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Naphtha (petroleum), polymn.</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>64741-72-6</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2-Butyne-1,4-diol, polymer with 2-(chloromethyl)oxirane, brominated, dehydrochlorinated, methoxylated</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>68441-62-3</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2,6-dibromo-4-cyanophenyl octanoate</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>1689-99-2</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2-{2-chloro-4-mesyl-3-[(tetrahydrofuran-2-ylmethoxy)methyl]benzoyl}cyclohexane-1,3-dione</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>473278-76-1</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>1,1,2-trichloroethane</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>79-00-5</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Isophthalic acid</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>121-91-5</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Fatty acids, C9-13-neo-, copper salts</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>91031-79-7</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>4,4'-[(3,3'-dichloro[1,1'-biphenyl]-4,4'-diyl)bis(azo)]bis[2,4-dihydro-5-methyl-2-(p-tolyl)-3H-pyrazol-3-one]</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>15793-73-4</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Naphtha (petroleum), light catalytic reformed, arom.-free</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>68513-03-1</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2-[[4-[(2-cyanoethyl)(2-phenylethyl)amino]phenyl]azo]-5-nitrobenzonitrile</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>24610-00-2</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Sodium 2-(4-(4-fluoro-6-(2-sulfoethylamino)-[1,3,5]triazin-2-ylamino)-2-ureidophenylazo)-5-(4-sulfophenylazo)benzene-1-sulfonate</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>146177-84-6</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>3-methyl-2-butenal</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>107-86-8</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>N2-acetyl-N-benzyl-O-methyl-L-serinamide</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>175481-37-5</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>[4-(2-hydroxyethoxy)-1,3-phenylene]diammonium sulphate</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>70643-20-8</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>N-[2,5-dichloro-4-(1,1,2,3,3,3-hexafluoropropoxy)-phenyl-aminocarbonyl]-2,6-difluorobenzamide</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>103055-07-8</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Sodium 4-[(9,10-dihydro-4-hydroxy-9,10-dioxo-1-anthryl)amino]toluene-3-sulphonate</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>4430-18-6</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>1H-Pyrazole, 3,4-dimethyl-, phosphate (1:1)</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>202842-98-6</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2-methyl-2H-isothiazol-3-one</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>2682-20-4</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Diethyl 4,4'-[(3,3'-dichloro[1,1'-biphenyl]-4,4'-diyl)bis(azo)]bis[4,5-dihydro-5-oxo-1-phenyl-1H-pyrazole-3-carboxylate]</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>6358-87-8</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2-[[4-[(2-cyano-3-nitrophenyl)azo]-m-tolyl](2-acetoxyethyl)amino]ethyl acetate</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>30124-94-8</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2,2,4-trimethylpentane</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>540-84-1</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Potassium 3,3,4,4,5,5,6,6,7,7,8,8,8-tridecafluorooctanesulphonate</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>59587-38-1</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2,2',2''-(hexahydro-1,3,5-triazine-1,3,5-triyl)triethanol</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>4719-04-4</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Bordeaux mixture</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>8011-63-0</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>3,4-dihydro-2H-1,4-benzoxazin-6-ol</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>26021-57-8</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>N-[2-[(2-chloro-4,6-dinitrophenyl)azo]-5-(diallylamino)-4-methoxyphenyl]acetamide</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>85508-41-4</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2-[(2-nitrophenyl)amino]ethanol</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>4926-55-0</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Benzoic acid, 2,3,4,5-tetrachloro-6-cyano-, methyl ester, reaction products with p-phenylenediamine and sodium methoxide</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>106276-80-6</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
           <t>mecoprop-P (ISO); (R)-2-(4-chloro-2-methylphenoxy)propionic acid</t>
         </is>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B272" t="inlineStr">
         <is>
           <t>16484-77-8</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>C[C@@H](OC1=C(C)C=C(Cl)C=C1)C(O)=O</t>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>negative</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100CE31A2AD8A04D04095B1ECC47751CB4F" ma:contentTypeVersion="13" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="de3819b5c38e695d1520c77a30b48443">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a6c08589-172d-430f-b6a4-62c51d456da6" xmlns:ns3="7e64aa66-2342-42ff-b823-72fa13eb9fa0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1e41e37b6f0b5bdaee859c7ae025813e" ns2:_="" ns3:_="">
-    <xsd:import namespace="a6c08589-172d-430f-b6a4-62c51d456da6"/>
-    <xsd:import namespace="7e64aa66-2342-42ff-b823-72fa13eb9fa0"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a6c08589-172d-430f-b6a4-62c51d456da6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="10" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="11" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="12" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="이미지 태그" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="0f777d39-a39c-4a0e-b055-0cad81c219ad" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="16" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="17" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="18" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7e64aa66-2342-42ff-b823-72fa13eb9fa0" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="15" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{bf2c7d88-e92c-4bbf-9e45-3c93fe8fa0bb}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="7e64aa66-2342-42ff-b823-72fa13eb9fa0">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="콘텐츠 형식"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="제목"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="7e64aa66-2342-42ff-b823-72fa13eb9fa0" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a6c08589-172d-430f-b6a4-62c51d456da6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{647558F3-2DD9-4F5A-9B1B-E7E6FE89FA5F}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4887093B-7B1B-4536-B5B3-255780986B18}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65111FEA-D2B6-40D0-81C9-510EA73DCC6F}"/>
 </file>